--- a/spliced/falling/2023-03-25_18-03-09/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-09/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6193056222869129</v>
+        <v>0.08162501163598926</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1286169377768912</v>
+        <v>-0.581960884536185</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6118523001489119</v>
+        <v>0.1855354215495473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8970928599194783</v>
+        <v>0.6193056222869129</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8833782091373344</v>
+        <v>0.1286169377768912</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.204748107165821</v>
+        <v>-0.6118523001489119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.161268437780985</v>
+        <v>0.8970928599194783</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124489894727381</v>
+        <v>0.8833782091373344</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.472156795059762</v>
+        <v>-3.204748107165821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.366607433412133</v>
+        <v>-0.161268437780985</v>
       </c>
       <c r="B5" t="n">
-        <v>2.737767719640964</v>
+        <v>0.124489894727381</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.411724490363423</v>
+        <v>-2.472156795059762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.001652684517023</v>
+        <v>-2.366607433412133</v>
       </c>
       <c r="B6" t="n">
-        <v>3.962463135399469</v>
+        <v>2.737767719640964</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.871139858554049</v>
+        <v>-1.411724490363423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.06661038346043445</v>
+        <v>-2.001652684517023</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1919569562121135</v>
+        <v>3.962463135399469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05933587689225263</v>
+        <v>-1.871139858554049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.02138400813791778</v>
+        <v>0.06661038346043445</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1378432366906143</v>
+        <v>0.1919569562121135</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02639385003869168</v>
+        <v>0.05933587689225263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1729754304013602</v>
+        <v>-0.02138400813791778</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1063352536137511</v>
+        <v>0.1378432366906143</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01823656188278665</v>
+        <v>-0.02639385003869168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4490567220420372</v>
+        <v>0.1729754304013602</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3232520183593762</v>
+        <v>-0.1063352536137511</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.09577174720967686</v>
+        <v>-0.01823656188278665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04528970053283177</v>
+        <v>0.4490567220420372</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1171147901473975</v>
+        <v>-0.3232520183593762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09616285126383706</v>
+        <v>-0.09577174720967686</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.0392033953855677</v>
+        <v>0.04528970053283177</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2259382031312803</v>
+        <v>0.1171147901473975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1824885385065544</v>
+        <v>0.09616285126383706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.03262541961015729</v>
+        <v>-0.0392033953855677</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1276075131282566</v>
+        <v>0.2259382031312803</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02622995907213681</v>
+        <v>0.1824885385065544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.003914752202790014</v>
+        <v>-0.03262541961015729</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2204664746617399</v>
+        <v>-0.1276075131282566</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05295903471911827</v>
+        <v>0.02622995907213681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01699993268745699</v>
+        <v>0.003914752202790014</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00523332715397923</v>
+        <v>-0.2204664746617399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05201666502327448</v>
+        <v>-0.05295903471911827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.01029531448716063</v>
+        <v>0.01699993268745699</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.03043524366689888</v>
+        <v>0.00523332715397923</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04977434319330424</v>
+        <v>0.05201666502327448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.002801040596351329</v>
+        <v>-0.01029531448716063</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.03519552141973155</v>
+        <v>-0.03043524366689888</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04244768401471578</v>
+        <v>-0.04977434319330424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.006436434000866758</v>
+        <v>-0.002801040596351329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02465437250438991</v>
+        <v>-0.03519552141973155</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02476239040857406</v>
+        <v>-0.04244768401471578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0004395249685863074</v>
+        <v>0.006436434000866758</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0006667370567233805</v>
+        <v>0.02465437250438991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01120416263527254</v>
+        <v>0.02476239040857406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.004521892917137975</v>
+        <v>0.0004395249685863074</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01801680073868935</v>
+        <v>0.0006667370567233805</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.009371567176791164</v>
+        <v>0.01120416263527254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.001802797383833171</v>
+        <v>-0.004521892917137975</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008086515221426697</v>
+        <v>-0.01801680073868935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003687540273659049</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.003225666394161829</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.002238597612964259</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.004592663801570412</v>
+        <v>-0.009371567176791164</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-09/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-09/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08162501163598926</v>
+        <v>0.02334324724790524</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.581960884536185</v>
+        <v>0.01564411001234516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1855354215495473</v>
+        <v>0.0184190768475939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6193056222869129</v>
+        <v>-0.001020592069480415</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1286169377768912</v>
+        <v>0.02263181184123195</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6118523001489119</v>
+        <v>-0.0006294894690920053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8970928599194783</v>
+        <v>-0.02465064778197097</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8833782091373344</v>
+        <v>0.04819875901065215</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.204748107165821</v>
+        <v>-0.01549884358920696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.161268437780985</v>
+        <v>0.01120043709510704</v>
       </c>
       <c r="B5" t="n">
-        <v>0.124489894727381</v>
+        <v>0.02745168796944902</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.472156795059762</v>
+        <v>0.004529342418763651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.366607433412133</v>
+        <v>-0.007870477419800848</v>
       </c>
       <c r="B6" t="n">
-        <v>2.737767719640964</v>
+        <v>0.04201560953586564</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.411724490363423</v>
+        <v>0.04054804218978412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.001652684517023</v>
+        <v>-0.03585853518509281</v>
       </c>
       <c r="B7" t="n">
-        <v>3.962463135399469</v>
+        <v>0.05588672146564573</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.871139858554049</v>
+        <v>0.04165430539628354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06661038346043445</v>
+        <v>0.01350235557410764</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1919569562121135</v>
+        <v>-0.04772198527324475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05933587689225263</v>
+        <v>0.04825462864303003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.02138400813791778</v>
+        <v>0.06278502832098701</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1378432366906143</v>
+        <v>-0.1541466276820112</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02639385003869168</v>
+        <v>0.09075818756004657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1729754304013602</v>
+        <v>0.02069492338270688</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1063352536137511</v>
+        <v>-0.3678749610738054</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01823656188278665</v>
+        <v>0.1358281277665277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4490567220420372</v>
+        <v>-0.1521724931350568</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3232520183593762</v>
+        <v>-0.4923760018697599</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.09577174720967686</v>
+        <v>0.1619388900878952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.04528970053283177</v>
+        <v>-0.2075079472326651</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1171147901473975</v>
+        <v>-0.5799234204175996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09616285126383706</v>
+        <v>0.3153703608890859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0392033953855677</v>
+        <v>0.08162501163598926</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2259382031312803</v>
+        <v>-0.581960884536185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1824885385065544</v>
+        <v>0.1855354215495473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.03262541961015729</v>
+        <v>0.6193056222869129</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1276075131282566</v>
+        <v>0.1286169377768912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02622995907213681</v>
+        <v>-0.6118523001489119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.003914752202790014</v>
+        <v>0.8970928599194783</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2204664746617399</v>
+        <v>0.8833782091373344</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.05295903471911827</v>
+        <v>-3.204748107165821</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01699993268745699</v>
+        <v>-0.161268437780985</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00523332715397923</v>
+        <v>0.124489894727381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05201666502327448</v>
+        <v>-2.472156795059762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.01029531448716063</v>
+        <v>-2.366607433412133</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.03043524366689888</v>
+        <v>2.737767719640964</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04977434319330424</v>
+        <v>-1.411724490363423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.002801040596351329</v>
+        <v>-2.001652684517023</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.03519552141973155</v>
+        <v>3.962463135399469</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04244768401471578</v>
+        <v>-1.871139858554049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.006436434000866758</v>
+        <v>0.06661038346043445</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02465437250438991</v>
+        <v>0.1919569562121135</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02476239040857406</v>
+        <v>0.05933587689225263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0004395249685863074</v>
+        <v>-0.02138400813791778</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0006667370567233805</v>
+        <v>0.1378432366906143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01120416263527254</v>
+        <v>-0.02639385003869168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.004521892917137975</v>
+        <v>0.1729754304013602</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.01801680073868935</v>
+        <v>-0.1063352536137511</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.009371567176791164</v>
+        <v>-0.01823656188278665</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.4490567220420372</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3232520183593762</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.09577174720967686</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.04528970053283177</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1171147901473975</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.09616285126383706</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0392033953855677</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2259382031312803</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1824885385065544</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.03262541961015729</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1276075131282566</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02622995907213681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.003914752202790014</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2204664746617399</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.05295903471911827</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.01699993268745699</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.00523332715397923</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.05201666502327448</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.01029531448716063</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.03043524366689888</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.04977434319330424</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.002801040596351329</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.03519552141973155</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.04244768401471578</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.006436434000866758</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.02465437250438991</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02476239040857406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0004395249685863074</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0006667370567233805</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01120416263527254</v>
       </c>
     </row>
   </sheetData>
